--- a/previous/data20210328.xlsx
+++ b/previous/data20210328.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dehaiwu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyue\Documents\GitHub\WuGenealogy\previous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF6011E-EABE-9A43-AD9C-A1B85047A2B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E489EE06-3009-499D-AF5D-F0B65290AFC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="500" windowWidth="17380" windowHeight="15860" xr2:uid="{BE040026-2525-2F41-8154-13C10946EE35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE040026-2525-2F41-8154-13C10946EE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -790,7 +790,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1216,7 +1216,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1850,7 +1850,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1895,7 +1895,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2016,7 +2016,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2236,7 +2236,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2368,7 +2368,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2416,23 +2416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">吴德选
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王梅
-赵月菊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴德军
 王芳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2539,7 +2522,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2666,7 +2649,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2687,6 +2670,22 @@
   <si>
     <t>吴莀熙</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">吴德选
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王梅(离)
+赵月菊</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2697,14 +2696,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2712,7 +2711,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2726,7 +2725,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2734,7 +2733,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2742,7 +2741,7 @@
     <font>
       <sz val="10"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2828,7 +2827,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2844,7 +2843,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3142,20 +3141,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2917E-BE49-8D43-B460-AF3709AE4A60}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="138" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="138" workbookViewId="0">
+      <selection activeCell="M195" sqref="M195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -3196,7 +3195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28">
+    <row r="2" spans="1:12" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28">
+    <row r="3" spans="1:12" ht="25.5">
       <c r="C3" s="5" t="s">
         <v>195</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28">
+    <row r="4" spans="1:12" ht="25.5">
       <c r="E4" s="5" t="s">
         <v>199</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28">
+    <row r="6" spans="1:12" ht="25.5">
       <c r="F6" s="5" t="s">
         <v>205</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28">
+    <row r="7" spans="1:12" ht="25.5">
       <c r="H7" s="5" t="s">
         <v>237</v>
       </c>
@@ -3271,7 +3270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28">
+    <row r="8" spans="1:12" ht="25.5">
       <c r="J8" s="5" t="s">
         <v>379</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="29">
+    <row r="12" spans="1:12" ht="25.5">
       <c r="I12" s="5" t="s">
         <v>287</v>
       </c>
@@ -3320,12 +3319,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14">
+    <row r="16" spans="1:12">
       <c r="J16" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="7:11" ht="28">
+    <row r="17" spans="7:11" ht="25.5">
       <c r="I17" s="5" t="s">
         <v>289</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="7:11" ht="28">
+    <row r="19" spans="7:11" ht="25.5">
       <c r="I19" s="5" t="s">
         <v>291</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="7:11" ht="28">
+    <row r="21" spans="7:11" ht="25.5">
       <c r="G21" s="5" t="s">
         <v>216</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="7:11" ht="28">
+    <row r="22" spans="7:11" ht="25.5">
       <c r="H22" s="5" t="s">
         <v>239</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="7:11" ht="28">
+    <row r="25" spans="7:11" ht="25.5">
       <c r="H25" s="5" t="s">
         <v>240</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="7:11" ht="28">
+    <row r="26" spans="7:11" ht="25.5">
       <c r="G26" s="5" t="s">
         <v>217</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="7:11" ht="28">
+    <row r="28" spans="7:11" ht="25.5">
       <c r="J28" s="5" t="s">
         <v>385</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="7:11" ht="28">
+    <row r="30" spans="7:11" ht="25.5">
       <c r="J30" s="5" t="s">
         <v>386</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="7:11" ht="28">
+    <row r="32" spans="7:11" ht="25.5">
       <c r="J32" s="5" t="s">
         <v>387</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="6:12" ht="28">
+    <row r="34" spans="6:12" ht="25.5">
       <c r="I34" s="5" t="s">
         <v>296</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="6:12" ht="28">
+    <row r="36" spans="6:12" ht="25.5">
       <c r="H36" s="5" t="s">
         <v>242</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="6:12" ht="28">
+    <row r="37" spans="6:12" ht="25.5">
       <c r="J37" s="5" t="s">
         <v>389</v>
       </c>
@@ -3493,7 +3492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="6:12" ht="40">
+    <row r="38" spans="6:12" ht="34.5">
       <c r="H38" s="5" t="s">
         <v>243</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="6:12" ht="28">
+    <row r="41" spans="6:12" ht="25.5">
       <c r="H41" s="5" t="s">
         <v>244</v>
       </c>
@@ -3536,7 +3535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="6:12" ht="28">
+    <row r="43" spans="6:12" ht="25.5">
       <c r="I43" s="5" t="s">
         <v>302</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="6:12" ht="37">
+    <row r="45" spans="6:12" ht="32.25">
       <c r="F45" s="5" t="s">
         <v>206</v>
       </c>
@@ -3566,13 +3565,13 @@
         <v>390</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="6:12" ht="28">
+    <row r="46" spans="6:12" ht="25.5">
       <c r="J46" s="5" t="s">
         <v>391</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="6:12" ht="28">
+    <row r="47" spans="6:12" ht="25.5">
       <c r="G47" s="5" t="s">
         <v>219</v>
       </c>
@@ -3594,26 +3593,26 @@
         <v>392</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="6:12" ht="28">
+    <row r="48" spans="6:12" ht="25.5">
       <c r="J48" s="5" t="s">
         <v>393</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="49" spans="8:12" ht="28">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12" ht="25.5">
       <c r="J49" s="5" t="s">
         <v>394</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="8:12">
@@ -3621,7 +3620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="8:12" ht="28">
+    <row r="51" spans="8:12" ht="25.5">
       <c r="I51" s="5" t="s">
         <v>305</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>395</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="8:12">
@@ -3649,7 +3648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="8:12" ht="28">
+    <row r="55" spans="8:12" ht="25.5">
       <c r="H55" s="5" t="s">
         <v>246</v>
       </c>
@@ -3657,12 +3656,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="8:12" ht="28">
+    <row r="56" spans="8:12" ht="25.5">
       <c r="I56" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="8:12" ht="37">
+    <row r="57" spans="8:12" ht="32.25">
       <c r="H57" s="5" t="s">
         <v>249</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>396</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>52</v>
@@ -3692,7 +3691,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="8:12" ht="28">
+    <row r="60" spans="8:12" ht="25.5">
       <c r="I60" s="5" t="s">
         <v>307</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="8:12" ht="39">
+    <row r="62" spans="8:12" ht="34.5">
       <c r="I62" s="5" t="s">
         <v>309</v>
       </c>
@@ -3713,7 +3712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="8:12" ht="28">
+    <row r="63" spans="8:12" ht="25.5">
       <c r="H63" s="5" t="s">
         <v>250</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="5:12" ht="28">
+    <row r="65" spans="5:12" ht="25.5">
       <c r="G65" s="5" t="s">
         <v>220</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="5:12" ht="28">
+    <row r="66" spans="5:12" ht="25.5">
       <c r="J66" s="5" t="s">
         <v>399</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="5:12" ht="28">
+    <row r="68" spans="5:12" ht="25.5">
       <c r="H68" s="5" t="s">
         <v>252</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="5:12" ht="28">
+    <row r="69" spans="5:12" ht="25.5">
       <c r="I69" s="5" t="s">
         <v>310</v>
       </c>
@@ -3781,7 +3780,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="5:12" ht="42">
+    <row r="70" spans="5:12" ht="38.25">
       <c r="E70" s="5" t="s">
         <v>200</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="5:12" ht="29">
+    <row r="71" spans="5:12" ht="25.5">
       <c r="H71" s="5" t="s">
         <v>254</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>64</v>
@@ -3828,23 +3827,23 @@
         <v>402</v>
       </c>
     </row>
-    <row r="74" spans="5:12" ht="28">
+    <row r="74" spans="5:12" ht="25.5">
       <c r="J74" s="5" t="s">
         <v>403</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="5:12" ht="28">
+    <row r="75" spans="5:12" ht="25.5">
       <c r="J75" s="5" t="s">
         <v>404</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>67</v>
@@ -3855,18 +3854,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="5:12" ht="28">
+    <row r="77" spans="5:12" ht="25.5">
       <c r="J77" s="5" t="s">
         <v>405</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="5:12" ht="28">
+    <row r="78" spans="5:12" ht="25.5">
       <c r="I78" s="5" t="s">
         <v>312</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="5:12" ht="28">
+    <row r="80" spans="5:12" ht="25.5">
       <c r="G80" s="5" t="s">
         <v>222</v>
       </c>
@@ -3899,20 +3898,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="7:12" ht="28">
+    <row r="81" spans="7:12" ht="25.5">
       <c r="K81" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="82" spans="7:12" ht="28">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="7:12" ht="25.5">
       <c r="I82" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="83" spans="7:12" ht="28">
+    <row r="83" spans="7:12" ht="25.5">
       <c r="I83" s="5" t="s">
         <v>319</v>
       </c>
@@ -3923,12 +3922,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="84" spans="7:12" ht="28">
+    <row r="84" spans="7:12" ht="25.5">
       <c r="J84" s="5" t="s">
         <v>410</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>72</v>
@@ -3939,12 +3938,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="7:12" ht="28">
+    <row r="86" spans="7:12" ht="25.5">
       <c r="H86" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="7:12" ht="29">
+    <row r="87" spans="7:12" ht="25.5">
       <c r="G87" s="5" t="s">
         <v>223</v>
       </c>
@@ -3958,18 +3957,18 @@
         <v>411</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="7:12" ht="28">
+    <row r="88" spans="7:12" ht="25.5">
       <c r="J88" s="5" t="s">
         <v>412</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>76</v>
@@ -3980,7 +3979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="7:12" ht="28">
+    <row r="90" spans="7:12" ht="25.5">
       <c r="J90" s="5" t="s">
         <v>413</v>
       </c>
@@ -3993,29 +3992,29 @@
         <v>414</v>
       </c>
     </row>
-    <row r="92" spans="7:12" ht="28">
+    <row r="92" spans="7:12" ht="25.5">
       <c r="J92" s="5" t="s">
         <v>415</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="7:12" ht="28">
+    <row r="93" spans="7:12" ht="25.5">
       <c r="J93" s="5" t="s">
         <v>416</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="7:12" ht="28">
+    <row r="94" spans="7:12" ht="25.5">
       <c r="I94" s="5" t="s">
         <v>321</v>
       </c>
@@ -4023,24 +4022,24 @@
         <v>417</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="7:12" ht="28">
+    <row r="95" spans="7:12" ht="25.5">
       <c r="J95" s="5" t="s">
         <v>418</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="7:12" ht="28">
+    <row r="96" spans="7:12" ht="25.5">
       <c r="J96" s="5" t="s">
         <v>419</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="8:11" ht="28">
+    <row r="98" spans="8:11" ht="25.5">
       <c r="H98" s="5" t="s">
         <v>258</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="8:11" ht="28">
+    <row r="99" spans="8:11" ht="25.5">
       <c r="I99" s="5" t="s">
         <v>323</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="8:11" ht="28">
+    <row r="102" spans="8:11" ht="25.5">
       <c r="I102" s="5" t="s">
         <v>324</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="8:11" ht="28">
+    <row r="105" spans="8:11" ht="25.5">
       <c r="H105" s="5" t="s">
         <v>259</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="8:11" ht="28">
+    <row r="107" spans="8:11" ht="25.5">
       <c r="H107" s="5" t="s">
         <v>260</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="8:11" ht="28">
+    <row r="108" spans="8:11" ht="25.5">
       <c r="I108" s="5" t="s">
         <v>328</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="8:11" ht="28">
+    <row r="110" spans="8:11" ht="25.5">
       <c r="I110" s="5" t="s">
         <v>330</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="8:11" ht="28">
+    <row r="111" spans="8:11" ht="25.5">
       <c r="I111" s="5" t="s">
         <v>331</v>
       </c>
@@ -4163,10 +4162,10 @@
         <v>423</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="112" spans="8:11" ht="28">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" ht="25.5">
       <c r="I112" s="5" t="s">
         <v>332</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="6:11" ht="37">
+    <row r="113" spans="6:11" ht="32.25">
       <c r="G113" s="5" t="s">
         <v>224</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="6:11" ht="28">
+    <row r="114" spans="6:11" ht="25.5">
       <c r="H114" s="5" t="s">
         <v>263</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="6:11" ht="28">
+    <row r="116" spans="6:11" ht="25.5">
       <c r="J116" s="5" t="s">
         <v>425</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="6:11" ht="28">
+    <row r="118" spans="6:11" ht="25.5">
       <c r="G118" s="5" t="s">
         <v>225</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="6:11" ht="29">
+    <row r="119" spans="6:11" ht="25.5">
       <c r="I119" s="5" t="s">
         <v>337</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="6:11" ht="28">
+    <row r="120" spans="6:11" ht="25.5">
       <c r="H120" s="5" t="s">
         <v>265</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="6:11" ht="28">
+    <row r="123" spans="6:11" ht="25.5">
       <c r="I123" s="5" t="s">
         <v>336</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="6:11" ht="28">
+    <row r="125" spans="6:11" ht="25.5">
       <c r="F125" s="5" t="s">
         <v>210</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="6:11" ht="28">
+    <row r="126" spans="6:11" ht="25.5">
       <c r="J126" s="5" t="s">
         <v>426</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="6:11" ht="28">
+    <row r="128" spans="6:11" ht="25.5">
       <c r="I128" s="5" t="s">
         <v>339</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="4:12" ht="28">
+    <row r="129" spans="4:12" ht="25.5">
       <c r="J129" s="5" t="s">
         <v>427</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="4:12" ht="28">
+    <row r="130" spans="4:12" ht="25.5">
       <c r="I130" s="5" t="s">
         <v>340</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="4:12" ht="28">
+    <row r="137" spans="4:12" ht="25.5">
       <c r="G137" s="5" t="s">
         <v>230</v>
       </c>
@@ -4397,7 +4396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="139" spans="4:12" ht="42">
+    <row r="139" spans="4:12" ht="35.25">
       <c r="D139" s="5" t="s">
         <v>197</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="4:12" ht="25">
+    <row r="140" spans="4:12" ht="21.75">
       <c r="J140" s="5" t="s">
         <v>344</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="143" spans="4:12" ht="40">
+    <row r="143" spans="4:12" ht="33.75">
       <c r="I143" s="5" t="s">
         <v>345</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>430</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>125</v>
@@ -4454,7 +4453,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="145" spans="8:12" ht="28">
+    <row r="145" spans="8:12" ht="25.5">
       <c r="J145" s="5" t="s">
         <v>431</v>
       </c>
@@ -4467,18 +4466,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="8:12" ht="28">
+    <row r="147" spans="8:12" ht="25.5">
       <c r="J147" s="5" t="s">
         <v>432</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="8:12" ht="28">
+    <row r="148" spans="8:12" ht="25.5">
       <c r="J148" s="5" t="s">
         <v>433</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="8:12" ht="28">
+    <row r="153" spans="8:12" ht="25.5">
       <c r="I153" s="5" t="s">
         <v>346</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>434</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>133</v>
@@ -4525,7 +4524,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="155" spans="8:12" ht="28">
+    <row r="155" spans="8:12" ht="25.5">
       <c r="J155" s="5" t="s">
         <v>435</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="159" spans="8:12" ht="28">
+    <row r="159" spans="8:12" ht="25.5">
       <c r="H159" s="5" t="s">
         <v>270</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="8:12" ht="28">
+    <row r="160" spans="8:12" ht="25.5">
       <c r="H160" s="5" t="s">
         <v>271</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="161" spans="5:12" ht="28">
+    <row r="161" spans="5:12" ht="25.5">
       <c r="F161" s="5" t="s">
         <v>212</v>
       </c>
@@ -4575,7 +4574,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="5:12" ht="40">
+    <row r="162" spans="5:12" ht="33.75">
       <c r="F162" s="5" t="s">
         <v>213</v>
       </c>
@@ -4592,7 +4591,7 @@
         <v>137</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>138</v>
@@ -4603,7 +4602,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="164" spans="5:12" ht="28">
+    <row r="164" spans="5:12" ht="25.5">
       <c r="I164" s="5" t="s">
         <v>348</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>436</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>142</v>
@@ -4627,7 +4626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="5:12" ht="40">
+    <row r="167" spans="5:12" ht="33.75">
       <c r="I167" s="5" t="s">
         <v>349</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="169" spans="5:12" ht="28">
+    <row r="169" spans="5:12" ht="25.5">
       <c r="I169" s="5" t="s">
         <v>350</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="170" spans="5:12" ht="28">
+    <row r="170" spans="5:12" ht="25.5">
       <c r="I170" s="5" t="s">
         <v>351</v>
       </c>
@@ -4662,12 +4661,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="5:12" ht="14">
+    <row r="171" spans="5:12">
       <c r="K171" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="172" spans="5:12" ht="28">
+    <row r="172" spans="5:12" ht="25.5">
       <c r="E172" s="1" t="s">
         <v>202</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="5:12" ht="28">
+    <row r="173" spans="5:12" ht="25.5">
       <c r="E173" s="5" t="s">
         <v>203</v>
       </c>
@@ -4701,15 +4700,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="174" spans="5:12" ht="28">
+    <row r="174" spans="5:12" ht="25.5">
       <c r="J174" s="5" t="s">
         <v>439</v>
       </c>
       <c r="K174" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="L174" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="175" spans="5:12">
@@ -4717,7 +4716,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="5:12" ht="28">
+    <row r="176" spans="5:12" ht="25.5">
       <c r="J176" s="5" t="s">
         <v>440</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="177" spans="7:11" ht="28">
+    <row r="177" spans="7:11" ht="25.5">
       <c r="I177" s="5" t="s">
         <v>353</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="7:11" ht="28">
+    <row r="179" spans="7:11" ht="25.5">
       <c r="I179" s="5" t="s">
         <v>354</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="7:11" ht="28">
+    <row r="180" spans="7:11" ht="25.5">
       <c r="H180" s="5" t="s">
         <v>275</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182" spans="7:11" ht="29">
+    <row r="182" spans="7:11" ht="25.5">
       <c r="I182" s="5" t="s">
         <v>356</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="7:11" ht="28">
+    <row r="183" spans="7:11" ht="25.5">
       <c r="H183" s="5" t="s">
         <v>276</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="7:11" ht="28">
+    <row r="184" spans="7:11" ht="25.5">
       <c r="I184" s="5" t="s">
         <v>359</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="187" spans="7:11" ht="29">
+    <row r="187" spans="7:11" ht="25.5">
       <c r="H187" s="5" t="s">
         <v>279</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="7:11" ht="28">
+    <row r="190" spans="7:11" ht="25.5">
       <c r="G190" s="5" t="s">
         <v>232</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="7:11" ht="28">
+    <row r="192" spans="7:11" ht="25.5">
       <c r="G192" s="5" t="s">
         <v>233</v>
       </c>
@@ -4862,7 +4861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="8:11" ht="40">
+    <row r="193" spans="8:11" ht="33.75">
       <c r="J193" s="5" t="s">
         <v>444</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="8:11" ht="14">
+    <row r="194" spans="8:11">
       <c r="K194" s="1" t="s">
         <v>445</v>
       </c>
@@ -4880,12 +4879,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="8:11" ht="40">
+    <row r="196" spans="8:11" ht="33.75">
       <c r="I196" s="5" t="s">
         <v>363</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>193</v>
@@ -4896,9 +4895,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="198" spans="8:11" ht="28">
+    <row r="198" spans="8:11" ht="25.5">
       <c r="J198" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>157</v>
@@ -4909,7 +4908,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="200" spans="8:11" ht="28">
+    <row r="200" spans="8:11" ht="25.5">
       <c r="I200" s="5" t="s">
         <v>364</v>
       </c>
@@ -4928,31 +4927,31 @@
         <v>162</v>
       </c>
     </row>
-    <row r="202" spans="8:11" ht="28">
+    <row r="202" spans="8:11" ht="25.5">
       <c r="I202" s="5" t="s">
         <v>365</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="8:11" ht="28">
+    <row r="203" spans="8:11" ht="25.5">
       <c r="J203" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="204" spans="8:11" ht="28">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="204" spans="8:11" ht="25.5">
       <c r="I204" s="5" t="s">
         <v>366</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>163</v>
@@ -4968,7 +4967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="8:11" ht="28">
+    <row r="207" spans="8:11" ht="25.5">
       <c r="H207" s="5" t="s">
         <v>281</v>
       </c>
@@ -4976,15 +4975,15 @@
         <v>367</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="208" spans="8:11" ht="28">
+    <row r="208" spans="8:11" ht="25.5">
       <c r="J208" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>166</v>
@@ -5005,7 +5004,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="212" spans="7:11" ht="28">
+    <row r="212" spans="7:11" ht="25.5">
       <c r="H212" s="5" t="s">
         <v>282</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="7:11" ht="28">
+    <row r="214" spans="7:11" ht="25.5">
       <c r="G214" s="5" t="s">
         <v>234</v>
       </c>
@@ -5032,18 +5031,18 @@
         <v>369</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="215" spans="7:11" ht="28">
+    <row r="215" spans="7:11" ht="25.5">
       <c r="I215" s="5" t="s">
         <v>370</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>173</v>
@@ -5054,23 +5053,23 @@
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="7:11" ht="28">
+    <row r="217" spans="7:11" ht="25.5">
       <c r="I217" s="5" t="s">
         <v>371</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="218" spans="7:11" ht="28">
+    <row r="218" spans="7:11" ht="25.5">
       <c r="I218" s="5" t="s">
         <v>372</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>105</v>
@@ -5081,23 +5080,23 @@
         <v>176</v>
       </c>
     </row>
-    <row r="220" spans="7:11" ht="28">
+    <row r="220" spans="7:11" ht="25.5">
       <c r="I220" s="5" t="s">
         <v>373</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="221" spans="7:11" ht="28">
+    <row r="221" spans="7:11" ht="25.5">
       <c r="I221" s="5" t="s">
         <v>374</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>178</v>
@@ -5108,7 +5107,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="223" spans="7:11" ht="28">
+    <row r="223" spans="7:11" ht="25.5">
       <c r="G223" s="5" t="s">
         <v>235</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="224" spans="7:11" ht="28">
+    <row r="224" spans="7:11" ht="25.5">
       <c r="H224" s="5" t="s">
         <v>285</v>
       </c>
@@ -5130,13 +5129,13 @@
         <v>376</v>
       </c>
       <c r="J224" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="225" spans="7:10" ht="28">
+    <row r="225" spans="7:10" ht="25.5">
       <c r="I225" s="5" t="s">
         <v>377</v>
       </c>

--- a/previous/data20210328.xlsx
+++ b/previous/data20210328.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyue\Documents\GitHub\WuGenealogy\previous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E489EE06-3009-499D-AF5D-F0B65290AFC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{518EE496-9EFB-413A-9B7C-6BF52C0353C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE040026-2525-2F41-8154-13C10946EE35}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="489">
   <si>
     <t>一世</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2481,26 +2481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴云峰
-李亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴明晓
-陈晶晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴明云
-杨大雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴云春
-孙婷婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴明星
 庄一晶</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2672,6 +2652,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吴鸣峰
+李亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴鸣寅
+杨大雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴鸣晓
+陈晶晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴鸣春
+孙婷婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴鸣艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">吴德选
 </t>
@@ -2686,6 +2690,7 @@
       <t>王梅(离)
 赵月菊</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3141,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C2917E-BE49-8D43-B460-AF3709AE4A60}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="138" workbookViewId="0">
-      <selection activeCell="M195" sqref="M195"/>
+    <sheetView tabSelected="1" topLeftCell="H193" zoomScale="289" workbookViewId="0">
+      <selection activeCell="M198" sqref="M198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
@@ -3593,7 +3598,7 @@
         <v>392</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>46</v>
@@ -3604,7 +3609,7 @@
         <v>393</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="8:12" ht="25.5">
@@ -3612,7 +3617,7 @@
         <v>394</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="8:12">
@@ -3628,14 +3633,14 @@
         <v>395</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="8:12">
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="1" t="s">
-        <v>159</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="8:12">
@@ -3672,7 +3677,7 @@
         <v>396</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>52</v>
@@ -3805,7 +3810,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>64</v>
@@ -3832,7 +3837,7 @@
         <v>403</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>63</v>
@@ -3843,7 +3848,7 @@
         <v>404</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>67</v>
@@ -3859,7 +3864,7 @@
         <v>405</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>68</v>
@@ -3900,10 +3905,10 @@
     </row>
     <row r="81" spans="7:12" ht="25.5">
       <c r="K81" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="7:12" ht="25.5">
@@ -3927,7 +3932,7 @@
         <v>410</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>72</v>
@@ -3957,7 +3962,7 @@
         <v>411</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>74</v>
@@ -3968,7 +3973,7 @@
         <v>412</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>76</v>
@@ -3997,7 +4002,7 @@
         <v>415</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>79</v>
@@ -4008,7 +4013,7 @@
         <v>416</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>80</v>
@@ -4022,7 +4027,7 @@
         <v>417</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>81</v>
@@ -4033,7 +4038,7 @@
         <v>418</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>82</v>
@@ -4162,7 +4167,7 @@
         <v>423</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="8:11" ht="25.5">
@@ -4442,7 +4447,7 @@
         <v>430</v>
       </c>
       <c r="K143" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L143" s="1" t="s">
         <v>125</v>
@@ -4471,7 +4476,7 @@
         <v>432</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>127</v>
@@ -4513,7 +4518,7 @@
         <v>434</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>133</v>
@@ -4591,7 +4596,7 @@
         <v>137</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>138</v>
@@ -4610,7 +4615,7 @@
         <v>436</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>142</v>
@@ -4705,10 +4710,10 @@
         <v>439</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="5:12">
@@ -4884,7 +4889,7 @@
         <v>363</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>193</v>
@@ -4932,7 +4937,7 @@
         <v>365</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>101</v>
@@ -4943,7 +4948,7 @@
         <v>447</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="8:11" ht="25.5">
